--- a/Parcial 2/01 Base de datos/02 Colocacion de filtros.xlsx
+++ b/Parcial 2/01 Base de datos/02 Colocacion de filtros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 2\01 Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD62BCC-0F91-47B4-9528-1F7C6D3BD301}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51BD614-CB17-4E40-83A6-C12B4E1DA33A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="8235" activeTab="1" xr2:uid="{89735CFE-62FB-4FD2-BA39-980CC5301FAE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="8235" activeTab="2" xr2:uid="{89735CFE-62FB-4FD2-BA39-980CC5301FAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="2" r:id="rId1"/>
@@ -1825,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172F3648-F6C1-476B-BF74-32EA6BC331CE}">
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView topLeftCell="Q65" workbookViewId="0">
-      <selection sqref="A1:AA103"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10340,8 +10340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2355D685-FAD8-4A11-823D-A9B3E3E6CF95}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10378,7 +10378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4E6D92-0963-46A9-BDB3-72B89B809CCA}">
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
